--- a/excel/供应链汇总2024-01-02.xlsx
+++ b/excel/供应链汇总2024-01-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,11 +708,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>无锡红豆</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148800800</v>
+        <v>10000000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -721,28 +721,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>瑞e惠</t>
+          <t>瑞e保</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>无锡红豆居家服饰有限公司</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>无锡红豆</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>联创光电</t>
+          <t>磁金融</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200000000</v>
+        <v>148800800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -751,28 +751,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>瑞e保</t>
+          <t>瑞e惠</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>江西联创光电科技股份有限公司</t>
+          <t>磁金融</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>联创光电</t>
+          <t>磁金融</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>远东</t>
+          <t>联创光电</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>239495284.15</v>
+        <v>200000000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -786,23 +786,23 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>远东智慧能源股份有限公司</t>
+          <t>江西联创光电科技股份有限公司</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>远东</t>
+          <t>联创光电</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>钰翔</t>
+          <t>远东</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1528119778.08</v>
+        <v>239495284.15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -811,28 +811,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>瑞e订</t>
+          <t>瑞e保</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>钰翔环保供应链管理（上海）有限公司</t>
+          <t>远东智慧能源股份有限公司</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>钰翔</t>
+          <t>远东</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>银江</t>
+          <t>钰翔</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22622237.64</v>
+        <v>1528119778.08</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -841,45 +841,75 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>瑞e保</t>
+          <t>瑞e订</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>银江技术股份有限公司</t>
+          <t>钰翔环保供应链管理（上海）有限公司</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>银江</t>
+          <t>钰翔</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>银江</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22622237.64</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>银江技术股份有限公司</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>银江</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>锱云</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>21265000</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2024-01-02</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>瑞e惠</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>锱云（上海）物联网科技有限公司</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>锱云</t>
         </is>
